--- a/usecase.xlsx
+++ b/usecase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\C#\ComplexPortfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA1AA52-48F5-486E-9F65-AE6944D4C38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61452C16-894B-4244-B191-76CE87AA8CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1DD14338-368B-492A-AB65-D9C2F74C181C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DD14338-368B-492A-AB65-D9C2F74C181C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7D6C3F-A353-423E-98B4-89BB41E45FA9}">
   <dimension ref="A3:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391647A8-C3B5-4A11-9669-1C865C37C0B9}">
   <dimension ref="A2:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
